--- a/data/trans_camb/P9_1_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P9_1_R-Provincia-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 7,25</t>
+          <t>-4,14; 6,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 3,75</t>
+          <t>-5,93; 4,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 13,61</t>
+          <t>-0,88; 13,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,11; -1,23</t>
+          <t>-12,93; -1,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 8,22</t>
+          <t>-0,75; 8,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,17; -0,13</t>
+          <t>-8,45; -0,25</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-30,01; 88,73</t>
+          <t>-31,25; 80,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-47,49; 44,25</t>
+          <t>-43,09; 52,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 87,04</t>
+          <t>-3,53; 84,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,24; -7,18</t>
+          <t>-52,94; -5,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 62,65</t>
+          <t>-3,34; 67,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-45,61; -0,87</t>
+          <t>-45,77; -2,67</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 5,89</t>
+          <t>-3,29; 5,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 2,49</t>
+          <t>-4,63; 2,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,0; 13,85</t>
+          <t>4,32; 13,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 5,76</t>
+          <t>-3,61; 5,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 3,27</t>
+          <t>-6,49; 3,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 11,6</t>
+          <t>2,04; 11,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 4,56</t>
+          <t>-1,87; 4,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 1,94</t>
+          <t>-4,22; 2,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,54; 11,6</t>
+          <t>4,89; 11,27</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,31; 77,08</t>
+          <t>-27,47; 69,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-40,24; 31,85</t>
+          <t>-39,73; 39,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,45; 176,04</t>
+          <t>36,55; 168,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,64; 37,67</t>
+          <t>-17,69; 38,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,63; 20,91</t>
+          <t>-32,36; 23,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,04; 77,31</t>
+          <t>9,68; 72,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 36,84</t>
+          <t>-12,21; 37,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,82; 16,22</t>
+          <t>-27,16; 17,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>28,53; 94,9</t>
+          <t>31,31; 92,68</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 10,63</t>
+          <t>1,44; 10,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 7,04</t>
+          <t>-1,4; 6,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,49; 13,28</t>
+          <t>4,2; 13,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 11,53</t>
+          <t>0,8; 12,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 3,47</t>
+          <t>-6,56; 3,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 10,03</t>
+          <t>-0,07; 10,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,23; 10,24</t>
+          <t>2,44; 9,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 3,98</t>
+          <t>-3,16; 3,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,16; 10,36</t>
+          <t>3,53; 10,66</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,21; 250,85</t>
+          <t>12,59; 241,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,37; 174,96</t>
+          <t>-23,18; 138,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>52,41; 309,77</t>
+          <t>48,1; 301,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 106,37</t>
+          <t>3,57; 109,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,95; 31,09</t>
+          <t>-42,07; 33,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 88,42</t>
+          <t>-1,78; 90,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,51; 122,52</t>
+          <t>20,68; 123,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-29,22; 46,38</t>
+          <t>-27,01; 47,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>27,46; 125,09</t>
+          <t>28,63; 130,26</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,97; 13,56</t>
+          <t>6,05; 13,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,34; 16,95</t>
+          <t>7,24; 16,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,01; 22,0</t>
+          <t>10,17; 22,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,94; 19,73</t>
+          <t>8,99; 19,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,0; 22,49</t>
+          <t>10,0; 22,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,59; 14,17</t>
+          <t>2,52; 13,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,95; 15,18</t>
+          <t>8,64; 15,55</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,04; 18,08</t>
+          <t>10,42; 18,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,71; 15,83</t>
+          <t>8,27; 16,39</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>71,5; 414,37</t>
+          <t>82,24; 402,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>94,47; 480,56</t>
+          <t>93,61; 482,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>132,92; 636,8</t>
+          <t>129,21; 600,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>46,45; 149,18</t>
+          <t>44,81; 142,2</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>54,41; 164,75</t>
+          <t>50,57; 165,29</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>13,56; 109,13</t>
+          <t>12,82; 95,83</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>68,56; 167,84</t>
+          <t>66,97; 175,02</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>80,94; 195,32</t>
+          <t>83,54; 202,79</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>58,74; 167,69</t>
+          <t>66,03; 185,92</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 10,7</t>
+          <t>-0,31; 10,7</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 5,53</t>
+          <t>-4,77; 5,64</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 3,8</t>
+          <t>-5,22; 4,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,65; 19,82</t>
+          <t>5,33; 20,34</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 7,69</t>
+          <t>-5,47; 7,68</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 6,3</t>
+          <t>-5,76; 5,38</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,62; 13,69</t>
+          <t>4,22; 14,06</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 5,14</t>
+          <t>-3,59; 4,59</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 3,78</t>
+          <t>-3,21; 3,78</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 203,75</t>
+          <t>-6,95; 211,15</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-46,81; 109,53</t>
+          <t>-45,4; 106,08</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-49,49; 79,12</t>
+          <t>-51,05; 81,92</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>23,81; 222,9</t>
+          <t>34,98; 229,01</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-39,05; 88,47</t>
+          <t>-34,8; 89,33</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-31,22; 79,71</t>
+          <t>-33,69; 61,0</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>37,19; 176,19</t>
+          <t>34,22; 176,2</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-26,75; 66,44</t>
+          <t>-29,28; 55,43</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-27,47; 49,15</t>
+          <t>-25,98; 51,13</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 9,41</t>
+          <t>-1,59; 9,5</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,52; 12,74</t>
+          <t>1,01; 11,97</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 7,71</t>
+          <t>-1,8; 7,6</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 6,75</t>
+          <t>-5,92; 7,48</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,54; 14,0</t>
+          <t>0,0; 14,54</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 4,97</t>
+          <t>-5,45; 5,48</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 6,17</t>
+          <t>-2,16; 6,59</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,23; 11,61</t>
+          <t>2,22; 11,36</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 4,89</t>
+          <t>-2,51; 4,9</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-17,22; 125,61</t>
+          <t>-13,68; 125,12</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>12,01; 188,1</t>
+          <t>6,14; 152,7</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-18,14; 108,93</t>
+          <t>-15,62; 107,77</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-29,53; 47,12</t>
+          <t>-30,24; 56,59</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>1,34; 100,23</t>
+          <t>-0,77; 106,03</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-28,35; 37,12</t>
+          <t>-27,25; 42,22</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 53,43</t>
+          <t>-14,9; 55,08</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>13,79; 99,8</t>
+          <t>13,44; 96,2</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-16,85; 43,06</t>
+          <t>-15,67; 44,01</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 3,06</t>
+          <t>-3,32; 3,36</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 4,89</t>
+          <t>-2,4; 4,51</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,8; 9,62</t>
+          <t>2,0; 9,68</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 5,59</t>
+          <t>-1,85; 6,13</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,04; 10,77</t>
+          <t>2,74; 11,29</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 11,42</t>
+          <t>-1,32; 11,75</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 3,61</t>
+          <t>-1,86; 3,42</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,3; 7,16</t>
+          <t>1,67; 6,95</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,87; 9,73</t>
+          <t>1,91; 9,54</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-34,05; 39,55</t>
+          <t>-30,85; 40,16</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-20,83; 60,72</t>
+          <t>-22,0; 56,68</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>16,13; 121,86</t>
+          <t>17,28; 121,55</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-15,73; 45,2</t>
+          <t>-11,31; 54,03</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>12,9; 89,54</t>
+          <t>15,71; 94,12</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 88,99</t>
+          <t>-7,09; 93,24</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-13,42; 33,96</t>
+          <t>-13,96; 32,5</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>8,71; 67,36</t>
+          <t>13,3; 66,75</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>15,15; 91,98</t>
+          <t>14,91; 89,06</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 3,91</t>
+          <t>-2,78; 3,94</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-6,81; -1,15</t>
+          <t>-6,6; -1,0</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 3,57</t>
+          <t>-2,87; 3,6</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 4,69</t>
+          <t>-2,81; 4,96</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 0,03</t>
+          <t>-7,28; 0,39</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 7,02</t>
+          <t>-1,71; 6,23</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 3,12</t>
+          <t>-1,79; 3,33</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-6,19; -1,49</t>
+          <t>-6,07; -1,35</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 3,99</t>
+          <t>-1,29; 4,02</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-21,86; 44,76</t>
+          <t>-22,7; 40,73</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-54,93; -11,14</t>
+          <t>-54,19; -10,61</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-23,7; 38,24</t>
+          <t>-23,9; 40,72</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-15,16; 28,88</t>
+          <t>-14,41; 30,52</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-38,39; 0,1</t>
+          <t>-37,01; 2,4</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 43,78</t>
+          <t>-8,28; 38,55</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-11,79; 23,5</t>
+          <t>-11,64; 24,5</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-39,32; -11,24</t>
+          <t>-39,15; -9,79</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 30,25</t>
+          <t>-8,57; 30,09</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>1,37; 4,47</t>
+          <t>1,43; 4,51</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 2,96</t>
+          <t>-0,0; 2,86</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>3,5; 6,77</t>
+          <t>3,4; 6,71</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>2,51; 6,55</t>
+          <t>2,69; 6,52</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>1,22; 5,02</t>
+          <t>1,16; 5,0</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>1,56; 5,85</t>
+          <t>1,82; 5,77</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>2,44; 4,94</t>
+          <t>2,74; 5,07</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,5</t>
+          <t>1,19; 3,6</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>3,21; 5,91</t>
+          <t>3,16; 5,87</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>14,52; 54,36</t>
+          <t>14,46; 54,07</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 35,69</t>
+          <t>0,02; 34,44</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>36,05; 81,27</t>
+          <t>34,92; 81,32</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>14,46; 42,39</t>
+          <t>15,98; 42,75</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>6,97; 32,85</t>
+          <t>7,43; 32,63</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>10,0; 37,67</t>
+          <t>10,66; 37,55</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>18,39; 40,55</t>
+          <t>20,62; 42,48</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>8,71; 28,63</t>
+          <t>9,18; 29,79</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>24,42; 48,63</t>
+          <t>23,85; 48,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P9_1_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P9_1_R-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 6,68</t>
+          <t>-4,44; 7,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 4,26</t>
+          <t>-6,32; 3,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 13,95</t>
+          <t>-0,32; 13,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,93; -1,13</t>
+          <t>-12,43; -0,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 8,62</t>
+          <t>-0,63; 8,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,45; -0,25</t>
+          <t>-8,31; -0,18</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,25; 80,72</t>
+          <t>-32,17; 87,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-43,09; 52,57</t>
+          <t>-46,92; 45,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 84,84</t>
+          <t>-0,62; 82,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,94; -5,94</t>
+          <t>-51,76; -5,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 67,72</t>
+          <t>-3,79; 66,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-45,77; -2,67</t>
+          <t>-45,46; -1,57</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 5,39</t>
+          <t>-2,64; 5,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 2,84</t>
+          <t>-4,65; 2,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,32; 13,33</t>
+          <t>4,45; 13,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 5,99</t>
+          <t>-4,14; 6,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 3,5</t>
+          <t>-5,98; 3,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,04; 11,14</t>
+          <t>2,31; 11,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 4,58</t>
+          <t>-2,1; 4,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 2,15</t>
+          <t>-4,4; 1,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,89; 11,27</t>
+          <t>4,16; 10,92</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-27,47; 69,95</t>
+          <t>-24,2; 75,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-39,73; 39,35</t>
+          <t>-41,06; 35,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,55; 168,38</t>
+          <t>39,16; 176,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,69; 38,4</t>
+          <t>-20,44; 38,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,36; 23,36</t>
+          <t>-30,01; 22,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,68; 72,68</t>
+          <t>10,18; 72,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,21; 37,4</t>
+          <t>-14,2; 36,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,16; 17,97</t>
+          <t>-28,31; 14,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,31; 92,68</t>
+          <t>24,11; 88,5</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,44; 10,98</t>
+          <t>1,81; 11,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 6,23</t>
+          <t>-1,43; 6,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,2; 13,06</t>
+          <t>4,81; 13,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 12,18</t>
+          <t>0,19; 11,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 3,83</t>
+          <t>-6,39; 5,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 10,08</t>
+          <t>0,07; 9,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,44; 9,99</t>
+          <t>1,86; 9,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 3,94</t>
+          <t>-3,24; 4,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,53; 10,66</t>
+          <t>3,21; 10,46</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,59; 241,5</t>
+          <t>14,84; 253,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-23,18; 138,86</t>
+          <t>-22,27; 151,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>48,1; 301,67</t>
+          <t>51,55; 321,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,57; 109,19</t>
+          <t>-0,31; 107,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,07; 33,62</t>
+          <t>-41,21; 47,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 90,34</t>
+          <t>-0,02; 91,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,68; 123,75</t>
+          <t>16,0; 114,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-27,01; 47,34</t>
+          <t>-27,28; 48,32</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>28,63; 130,26</t>
+          <t>25,16; 123,21</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,05; 13,51</t>
+          <t>5,9; 13,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,24; 16,47</t>
+          <t>7,18; 16,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,17; 22,24</t>
+          <t>10,51; 21,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,99; 19,53</t>
+          <t>9,65; 19,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,0; 22,39</t>
+          <t>10,24; 22,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,52; 13,23</t>
+          <t>2,56; 13,55</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,64; 15,55</t>
+          <t>8,92; 15,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,42; 18,19</t>
+          <t>10,42; 18,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,27; 16,39</t>
+          <t>8,07; 16,06</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>82,24; 402,94</t>
+          <t>77,05; 402,33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>93,61; 482,44</t>
+          <t>102,1; 475,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>129,21; 600,8</t>
+          <t>143,52; 602,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>44,81; 142,2</t>
+          <t>50,97; 154,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>50,57; 165,29</t>
+          <t>52,57; 171,69</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,82; 95,83</t>
+          <t>13,49; 103,49</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>66,97; 175,02</t>
+          <t>70,75; 169,71</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>83,54; 202,79</t>
+          <t>82,02; 199,6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>66,03; 185,92</t>
+          <t>63,27; 168,92</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 10,7</t>
+          <t>-0,84; 11,15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 5,64</t>
+          <t>-4,59; 5,53</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 4,0</t>
+          <t>-4,96; 4,04</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,33; 20,34</t>
+          <t>5,67; 20,59</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 7,68</t>
+          <t>-5,65; 8,02</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 5,38</t>
+          <t>-5,17; 5,41</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,22; 14,06</t>
+          <t>3,97; 13,95</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 4,59</t>
+          <t>-3,6; 4,86</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 3,78</t>
+          <t>-3,09; 4,05</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 211,15</t>
+          <t>-11,4; 203,6</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-45,4; 106,08</t>
+          <t>-44,97; 103,07</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-51,05; 81,92</t>
+          <t>-49,4; 81,3</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>34,98; 229,01</t>
+          <t>36,13; 244,65</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-34,8; 89,33</t>
+          <t>-36,86; 100,95</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-33,69; 61,0</t>
+          <t>-30,75; 65,33</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>34,22; 176,2</t>
+          <t>30,44; 172,83</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-29,28; 55,43</t>
+          <t>-28,65; 63,68</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-25,98; 51,13</t>
+          <t>-26,04; 57,15</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 9,5</t>
+          <t>-1,33; 8,92</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,01; 11,97</t>
+          <t>1,4; 12,5</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 7,6</t>
+          <t>-1,88; 8,09</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 7,48</t>
+          <t>-6,91; 6,6</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,54</t>
+          <t>0,04; 14,01</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 5,48</t>
+          <t>-5,59; 5,4</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 6,59</t>
+          <t>-2,27; 6,32</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,22; 11,36</t>
+          <t>2,66; 12,01</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 4,9</t>
+          <t>-2,76; 4,69</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 125,12</t>
+          <t>-13,87; 118,0</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>6,14; 152,7</t>
+          <t>8,83; 160,9</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 107,77</t>
+          <t>-16,31; 115,18</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-30,24; 56,59</t>
+          <t>-32,98; 51,75</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 106,03</t>
+          <t>-0,09; 101,08</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-27,25; 42,22</t>
+          <t>-27,95; 42,39</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-14,9; 55,08</t>
+          <t>-14,35; 55,49</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>13,44; 96,2</t>
+          <t>18,9; 107,04</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-15,67; 44,01</t>
+          <t>-17,04; 41,8</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 3,36</t>
+          <t>-3,49; 2,87</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 4,51</t>
+          <t>-2,09; 4,5</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,0; 9,68</t>
+          <t>2,17; 9,69</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 6,13</t>
+          <t>-1,77; 6,06</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,74; 11,29</t>
+          <t>2,83; 10,99</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 11,75</t>
+          <t>-1,36; 11,35</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 3,42</t>
+          <t>-1,95; 3,34</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,67; 6,95</t>
+          <t>1,41; 6,85</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,91; 9,54</t>
+          <t>1,82; 9,31</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-30,85; 40,16</t>
+          <t>-31,06; 36,81</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-22,0; 56,68</t>
+          <t>-18,97; 56,77</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>17,28; 121,55</t>
+          <t>17,84; 121,75</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-11,31; 54,03</t>
+          <t>-11,55; 51,31</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>15,71; 94,12</t>
+          <t>18,82; 92,74</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 93,24</t>
+          <t>-6,51; 90,64</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-13,96; 32,5</t>
+          <t>-14,54; 32,38</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>13,3; 66,75</t>
+          <t>9,74; 64,81</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>14,91; 89,06</t>
+          <t>15,42; 86,62</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 3,94</t>
+          <t>-2,55; 4,2</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-6,6; -1,0</t>
+          <t>-6,76; -0,89</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 3,6</t>
+          <t>-2,82; 3,77</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 4,96</t>
+          <t>-2,92; 4,74</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 0,39</t>
+          <t>-7,46; 0,26</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 6,23</t>
+          <t>-0,92; 6,62</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 3,33</t>
+          <t>-1,65; 3,5</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-6,07; -1,35</t>
+          <t>-6,28; -1,17</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 4,02</t>
+          <t>-1,27; 4,1</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-22,7; 40,73</t>
+          <t>-21,95; 44,39</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-54,19; -10,61</t>
+          <t>-54,38; -8,67</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-23,9; 40,72</t>
+          <t>-23,55; 40,82</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-14,41; 30,52</t>
+          <t>-14,59; 29,42</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-37,01; 2,4</t>
+          <t>-36,89; 2,06</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 38,55</t>
+          <t>-4,56; 41,82</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 24,5</t>
+          <t>-10,59; 26,17</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-39,15; -9,79</t>
+          <t>-38,59; -8,86</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 30,09</t>
+          <t>-8,04; 31,23</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>1,43; 4,51</t>
+          <t>1,44; 4,67</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 2,86</t>
+          <t>-0,1; 2,85</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>3,4; 6,71</t>
+          <t>3,37; 6,68</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,52</t>
+          <t>2,52; 6,49</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>1,16; 5,0</t>
+          <t>1,05; 5,02</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>1,82; 5,77</t>
+          <t>1,61; 5,72</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>2,74; 5,07</t>
+          <t>2,62; 5,04</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,6</t>
+          <t>1,17; 3,56</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>3,16; 5,87</t>
+          <t>3,2; 5,84</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>14,46; 54,07</t>
+          <t>14,19; 54,86</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>0,02; 34,44</t>
+          <t>-1,05; 33,7</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>34,92; 81,32</t>
+          <t>34,51; 79,29</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>15,98; 42,75</t>
+          <t>14,58; 41,93</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>7,43; 32,63</t>
+          <t>6,07; 32,47</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>10,66; 37,55</t>
+          <t>9,66; 37,05</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>20,62; 42,48</t>
+          <t>19,45; 40,98</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>9,18; 29,79</t>
+          <t>8,76; 29,5</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>23,85; 48,5</t>
+          <t>23,78; 48,23</t>
         </is>
       </c>
     </row>
